--- a/results/I3_N5_M3_T45_C100_DepCentral_s0_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1839.546596348169</v>
+        <v>145.1550089908196</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4619998931884766</v>
+        <v>0.2359998226165771</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.45855457449484</v>
+        <v>25.15500899081956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.46290845299062</v>
+        <v>0.8372574275573793</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.420950226667207</v>
+        <v>0.8372574275573793</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1617.459999999998</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>203.67</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41.43123270582124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>35.85875413377281</v>
       </c>
     </row>
     <row r="5">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35.53709154700938</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -955,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,7 +987,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>8</v>
@@ -996,20 +996,6 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1068,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>177.8440000000015</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1079,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>103.8960000000008</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>92.34199999999936</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.263</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="7">
@@ -1112,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>180.0059999999982</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="8">
@@ -1123,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>180.0059999999982</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="9">
@@ -1134,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.8960000000006</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1145,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>177.844000000001</v>
+        <v>100.8</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>80.00599999999821</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3">
@@ -1203,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.89600000000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1214,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>77.84400000000096</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>15.708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1283,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1319,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1332,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1357,34 +1343,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
